--- a/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-us\InputData\elec\CRbQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9471FEF-39AD-47E0-9220-A6AB3B0B7E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C9E450-0693-41C9-B0E3-488D25FE1F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-5760" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>nuclear</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -671,18 +689,18 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -690,107 +708,107 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -807,19 +825,19 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="22" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -917,7 +935,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1016,7 +1034,7 @@
       </c>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1115,7 +1133,7 @@
       </c>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1214,7 +1232,7 @@
       </c>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1331,7 @@
       </c>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1430,7 @@
       </c>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1511,7 +1529,7 @@
       </c>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +1628,7 @@
       </c>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1727,7 @@
       </c>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1808,7 +1826,7 @@
       </c>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1907,7 +1925,7 @@
       </c>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +2024,7 @@
       </c>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2105,7 +2123,7 @@
       </c>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2222,7 @@
       </c>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2303,7 +2321,7 @@
       </c>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2401,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2499,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2594,6 +2612,594 @@
         <v>0</v>
       </c>
       <c r="AF18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C9E450-0693-41C9-B0E3-488D25FE1F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18597CA5-2B37-4838-A183-A4B41E2B6CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>nuclear</t>
   </si>
@@ -166,7 +166,10 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +247,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,7 +387,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,6 +399,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -825,10 +839,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3120,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B24">
@@ -3200,6 +3214,104 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>0</v>
       </c>
     </row>
